--- a/pred_ohlcv/54_21/2020-01-12 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PAY ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-155667.3308</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-151967.3308</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-91545.2398</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-87388.2398</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-94349.4816</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-94225.4816</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11675.74899999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>112268.7238</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>39612.0612118551</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>45526.5762118551</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>67142.7933118551</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-28021.9683881449</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2179.197111855101</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2179.197111855101</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2204.197111855101</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-20366.0664881449</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-8255.066488144897</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-12971.6248881449</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-40299.5373881449</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-62740.1346881449</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 PAY ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-155667.3308</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-89545.2398</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-91545.2398</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-93938.4816</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>112268.7238</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>30898.1355118551</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28658.1355118551</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>31413.9064118551</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>39612.0612118551</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>45526.5762118551</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>77353.32741185511</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>74977.90921185511</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>67142.7933118551</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4645.863988144898</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19475.71437818484</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-23075.71437818484</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
